--- a/data_input/CR/CRR_Oct2023.xlsx
+++ b/data_input/CR/CRR_Oct2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2372A-8585-49F6-B641-D5EFC8602FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C29CD1-F9C7-4CB5-8C57-937362FBDA49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="4" activeTab="11" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="352">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1414,7 +1411,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1452,7 +1449,7 @@
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1491,7 +1488,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2370,13 +2367,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -2385,7 +2382,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2475,7 +2472,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2487,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3">
         <v>750800525</v>
@@ -2543,7 +2540,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -2552,10 +2549,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -2645,7 +2642,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2657,7 +2654,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2704,7 +2701,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>750765821</v>
@@ -2713,7 +2710,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -2722,10 +2719,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -2815,7 +2812,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -2824,7 +2821,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2868,7 +2865,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5">
         <v>750766732</v>
@@ -2877,7 +2874,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -2886,10 +2883,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -2979,13 +2976,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -3023,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -3040,97 +3037,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3201,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3355,7 +3352,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3405,7 +3402,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3452,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3493,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3525,7 +3522,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3536,97 +3533,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3689,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3750,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3786,43 +3783,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3833,7 +3830,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="7">
         <v>750749689</v>
@@ -3842,7 +3839,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -3851,7 +3848,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5">
         <v>243383</v>
@@ -3860,7 +3857,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3875,31 +3872,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" t="s">
         <v>188</v>
       </c>
-      <c r="U2" t="s">
-        <v>189</v>
-      </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3917,7 +3914,7 @@
         <v>139</v>
       </c>
       <c r="AC2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3929,13 +3926,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3950,31 +3947,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3982,7 +3979,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3">
         <v>751001274</v>
@@ -3991,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4006,7 +4003,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -4021,31 +4018,31 @@
         <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -4063,7 +4060,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4075,13 +4072,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4096,31 +4093,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4128,7 +4125,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4">
         <v>750972464</v>
@@ -4137,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -4146,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <v>243382</v>
@@ -4155,7 +4152,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -4170,31 +4167,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>66.45</v>
@@ -4212,7 +4209,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4221,13 +4218,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4242,31 +4239,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4274,16 +4271,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -4292,7 +4289,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="5">
         <v>243536</v>
@@ -4301,7 +4298,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4316,31 +4313,31 @@
         <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>1.01</v>
@@ -4358,16 +4355,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4382,31 +4379,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6">
         <v>750958769</v>
@@ -4423,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -4432,7 +4429,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" s="5">
         <v>243536</v>
@@ -4441,7 +4438,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -4456,31 +4453,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" t="s">
         <v>166</v>
       </c>
-      <c r="P6" t="s">
-        <v>167</v>
-      </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X6">
         <v>7.62</v>
@@ -4498,40 +4495,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4539,7 +4536,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7">
         <v>380004172</v>
@@ -4548,7 +4545,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -4557,16 +4554,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -4581,31 +4578,31 @@
         <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>2.2200000000000002</v>
@@ -4623,105 +4620,105 @@
         <v>139</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4801,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6980E0D-210D-494C-9DD0-08316EE5909D}">
   <dimension ref="A1:BD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4862,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4898,43 +4895,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4943,18 +4940,18 @@
         <v>36</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4969,7 +4966,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -4984,31 +4981,31 @@
         <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>1.41</v>
@@ -5026,7 +5023,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -5038,13 +5035,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -5059,31 +5056,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -5091,16 +5088,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -5109,16 +5106,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -5133,31 +5130,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X3">
         <v>1.67</v>
@@ -5175,7 +5172,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5187,13 +5184,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5208,31 +5205,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5240,16 +5237,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -5258,16 +5255,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -5282,31 +5279,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>2.97</v>
@@ -5324,7 +5321,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5333,13 +5330,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5354,31 +5351,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5386,14 +5383,14 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5402,13 +5399,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -5423,31 +5420,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>2.21</v>
@@ -5465,16 +5462,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5489,31 +5486,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5521,16 +5518,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5545,7 +5542,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5560,31 +5557,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
+        <v>187</v>
+      </c>
+      <c r="U6" t="s">
         <v>188</v>
       </c>
-      <c r="U6" t="s">
-        <v>189</v>
-      </c>
       <c r="V6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X6">
         <v>1.3</v>
@@ -5602,40 +5599,40 @@
         <v>140</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5643,13 +5640,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5658,13 +5655,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5679,31 +5676,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>7.0000000000000007E-2</v>
@@ -5721,22 +5718,22 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE7" s="13"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>750798475</v>
@@ -5745,7 +5742,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -5754,7 +5751,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="5">
         <v>243474</v>
@@ -5763,7 +5760,7 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5778,31 +5775,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" t="s">
         <v>185</v>
       </c>
-      <c r="T8" t="s">
-        <v>186</v>
-      </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>9.66</v>
@@ -5820,21 +5817,21 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -5843,13 +5840,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5864,31 +5861,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>0.56000000000000005</v>
@@ -5906,24 +5903,24 @@
         <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -5932,16 +5929,16 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5956,31 +5953,31 @@
         <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>1.1200000000000001</v>
@@ -5998,15 +5995,15 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11">
         <v>680037956</v>
@@ -6015,7 +6012,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -6024,16 +6021,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -6048,31 +6045,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>3.1</v>
@@ -6090,15 +6087,15 @@
         <v>141</v>
       </c>
       <c r="AC11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12">
         <v>750136936</v>
@@ -6107,7 +6104,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -6116,13 +6113,13 @@
         <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -6137,31 +6134,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X12">
         <v>10.050000000000001</v>
@@ -6179,21 +6176,21 @@
         <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -6208,7 +6205,7 @@
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -6223,31 +6220,31 @@
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" t="s">
         <v>188</v>
       </c>
-      <c r="U13" t="s">
-        <v>189</v>
-      </c>
       <c r="V13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X13">
         <v>1.24</v>
@@ -6265,24 +6262,24 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6291,16 +6288,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>56</v>
@@ -6315,31 +6312,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14">
         <v>1.72</v>
@@ -6357,15 +6354,15 @@
         <v>138</v>
       </c>
       <c r="AC14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15">
         <v>750256801</v>
@@ -6374,7 +6371,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -6383,7 +6380,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="5">
         <v>243506</v>
@@ -6392,7 +6389,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -6407,31 +6404,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>2.3199999999999998</v>
@@ -6449,21 +6446,21 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -6472,13 +6469,13 @@
         <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I16" t="s">
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6493,31 +6490,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X16">
         <v>1348.74</v>
@@ -6535,15 +6532,15 @@
         <v>141</v>
       </c>
       <c r="AC16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17">
         <v>750717549</v>
@@ -6552,7 +6549,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6561,16 +6558,16 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>56</v>
@@ -6585,31 +6582,31 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X17">
         <v>21.76</v>
@@ -6627,15 +6624,15 @@
         <v>140</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18">
         <v>750455320</v>
@@ -6644,7 +6641,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -6653,7 +6650,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H18" s="5">
         <v>243383</v>
@@ -6662,7 +6659,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -6677,31 +6674,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18">
         <v>6.53</v>
@@ -6719,15 +6716,15 @@
         <v>139</v>
       </c>
       <c r="AC18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B19">
         <v>730010944</v>
@@ -6736,7 +6733,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6745,13 +6742,13 @@
         <v>46</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6766,31 +6763,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>3.2</v>
@@ -6808,15 +6805,15 @@
         <v>138</v>
       </c>
       <c r="AC19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN19" t="s">
         <v>220</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B20">
         <v>750842297</v>
@@ -6825,7 +6822,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6834,16 +6831,16 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
@@ -6858,31 +6855,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X20">
         <v>14.32</v>
@@ -6900,15 +6897,15 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B21">
         <v>670000731</v>
@@ -6917,7 +6914,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6926,7 +6923,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" s="5">
         <v>243597</v>
@@ -6935,7 +6932,7 @@
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
         <v>56</v>
@@ -6950,31 +6947,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" t="s">
         <v>185</v>
       </c>
-      <c r="T21" t="s">
-        <v>186</v>
-      </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X21">
         <v>21.14</v>
@@ -6992,24 +6989,24 @@
         <v>139</v>
       </c>
       <c r="AC21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
         <v>334</v>
-      </c>
-      <c r="B22" t="s">
-        <v>335</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -7018,13 +7015,13 @@
         <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -7039,31 +7036,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
+        <v>197</v>
+      </c>
+      <c r="W22" t="s">
         <v>198</v>
-      </c>
-      <c r="W22" t="s">
-        <v>199</v>
       </c>
       <c r="X22">
         <v>1.44</v>
@@ -7081,21 +7078,21 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -7104,13 +7101,13 @@
         <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -7125,31 +7122,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" t="s">
         <v>198</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
       </c>
       <c r="X23">
         <v>1.2</v>
@@ -7167,15 +7164,15 @@
         <v>140</v>
       </c>
       <c r="AC23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24">
         <v>530007619</v>
@@ -7184,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
@@ -7193,16 +7190,16 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -7217,31 +7214,31 @@
         <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S24" t="s">
+        <v>184</v>
+      </c>
+      <c r="T24" t="s">
         <v>185</v>
       </c>
-      <c r="T24" t="s">
-        <v>186</v>
-      </c>
       <c r="U24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X24">
         <v>0.88</v>
@@ -7259,15 +7256,15 @@
         <v>141</v>
       </c>
       <c r="AC24" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN24" t="s">
         <v>225</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B25">
         <v>630006473</v>
@@ -7276,7 +7273,7 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
@@ -7285,16 +7282,16 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
         <v>57</v>
@@ -7309,31 +7306,31 @@
         <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S25" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" t="s">
         <v>185</v>
       </c>
-      <c r="T25" t="s">
-        <v>186</v>
-      </c>
       <c r="U25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -7351,10 +7348,10 @@
         <v>141</v>
       </c>
       <c r="AC25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -7438,8 +7435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7498,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7534,43 +7531,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7581,16 +7578,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -7599,7 +7596,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="5">
         <v>243413</v>
@@ -7608,7 +7605,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -7623,31 +7620,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>4.6399999999999997</v>
@@ -7665,7 +7662,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7677,13 +7674,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7698,31 +7695,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7730,16 +7727,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -7748,16 +7745,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7772,31 +7769,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>1.19</v>
@@ -7814,7 +7811,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7826,13 +7823,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7847,31 +7844,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7879,7 +7876,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4">
         <v>750962051</v>
@@ -7888,7 +7885,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -7897,7 +7894,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="5">
         <v>243414</v>
@@ -7906,7 +7903,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -7921,31 +7918,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.38</v>
@@ -7963,7 +7960,7 @@
         <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7972,13 +7969,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7993,31 +7990,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -8025,7 +8022,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5">
         <v>750962047</v>
@@ -8034,7 +8031,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -8043,7 +8040,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>243414</v>
@@ -8052,7 +8049,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -8067,31 +8064,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X5">
         <v>1.38</v>
@@ -8109,16 +8106,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8133,31 +8130,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8165,16 +8162,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -8189,7 +8186,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -8204,31 +8201,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>1.44</v>
@@ -8246,40 +8243,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8287,13 +8284,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -8308,7 +8305,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8323,31 +8320,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>1.3</v>
@@ -8365,24 +8362,24 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -8391,13 +8388,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -8412,31 +8409,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X8">
         <v>1.45</v>
@@ -8454,21 +8451,21 @@
         <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -8477,13 +8474,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8498,31 +8495,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>4.1100000000000003</v>
@@ -8540,99 +8537,99 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H10" s="5"/>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H11" s="5"/>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H12" s="5"/>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8900,7 +8897,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -8956,7 +8953,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9009,7 +9006,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9056,7 +9053,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9094,7 +9091,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9111,97 +9108,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9461,7 +9458,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9517,7 +9514,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9570,7 +9567,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9617,7 +9614,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9655,7 +9652,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9672,97 +9669,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10021,7 +10018,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10077,7 +10074,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10130,7 +10127,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10177,7 +10174,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10215,7 +10212,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10232,97 +10229,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10574,13 +10571,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -10589,7 +10586,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -10679,7 +10676,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10691,7 +10688,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10738,13 +10735,13 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -10753,7 +10750,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -10843,7 +10840,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10855,7 +10852,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4">
         <v>750907973</v>
@@ -10911,7 +10908,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -10920,7 +10917,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="5">
         <v>243383</v>
@@ -11013,7 +11010,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -11022,7 +11019,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11066,7 +11063,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>750762025</v>
@@ -11075,7 +11072,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -11084,7 +11081,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="5">
         <v>243352</v>
@@ -11177,13 +11174,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11218,13 +11215,13 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -11323,13 +11320,13 @@
         <v>138</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11346,13 +11343,13 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -11361,7 +11358,7 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
@@ -11451,100 +11448,100 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11794,7 +11791,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2">
         <v>750458174</v>
@@ -11803,7 +11800,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -11812,10 +11809,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -11905,7 +11902,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11917,7 +11914,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11964,7 +11961,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3">
         <v>750961820</v>
@@ -11973,7 +11970,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -11982,7 +11979,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243506</v>
@@ -12075,7 +12072,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12087,7 +12084,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12140,7 +12137,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12187,7 +12184,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12225,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12242,97 +12239,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12560,7 +12557,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2">
         <v>750602275</v>
@@ -12569,7 +12566,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -12578,10 +12575,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -12659,7 +12656,7 @@
         <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12671,7 +12668,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -12709,7 +12706,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3">
         <v>750662105</v>
@@ -12718,7 +12715,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -12727,10 +12724,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -12808,7 +12805,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -12820,7 +12817,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>750697586</v>
@@ -12867,7 +12864,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -12876,7 +12873,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="5">
         <v>243321</v>
@@ -12957,7 +12954,7 @@
         <v>139</v>
       </c>
       <c r="AH4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -12966,7 +12963,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13004,7 +13001,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13036,7 +13033,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13050,97 +13047,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13359,16 +13356,16 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -13377,10 +13374,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -13443,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD2">
         <v>75</v>
@@ -13458,7 +13455,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -13470,7 +13467,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13508,7 +13505,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>750968674</v>
@@ -13517,7 +13514,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -13526,7 +13523,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>243294</v>
@@ -13607,7 +13604,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -13619,7 +13616,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13663,7 +13660,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13701,7 +13698,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13733,7 +13730,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13747,97 +13744,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14085,7 +14082,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -14141,7 +14138,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -14194,7 +14191,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -14241,7 +14238,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -14276,7 +14273,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14290,97 +14287,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
